--- a/dataDuplet.XLSX
+++ b/dataDuplet.XLSX
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="6" lowestEdited="4" rupBuild="14420"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12435"/>
   </bookViews>
   <sheets>
     <sheet name="Лист1" sheetId="1" r:id="rId1"/>
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="45" uniqueCount="6">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="50" uniqueCount="11">
   <si>
     <t>Корнилов Владислав Борисович</t>
   </si>
@@ -40,6 +40,21 @@
   </si>
   <si>
     <t>vl1dfr22rhe1ven@gmail.com</t>
+  </si>
+  <si>
+    <t>name</t>
+  </si>
+  <si>
+    <t>sex</t>
+  </si>
+  <si>
+    <t>re</t>
+  </si>
+  <si>
+    <t>df</t>
+  </si>
+  <si>
+    <t>email</t>
   </si>
 </sst>
 </file>
@@ -83,7 +98,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="2">
+  <borders count="3">
     <border>
       <left/>
       <right/>
@@ -104,16 +119,28 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color indexed="10"/>
+      </left>
+      <right style="thin">
+        <color indexed="10"/>
+      </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="4">
+  <cellXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="49" fontId="0" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="49" fontId="2" fillId="2" borderId="1" xfId="1" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="49" fontId="0" fillId="2" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Гиперссылка" xfId="1" builtinId="8"/>
@@ -419,10 +446,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:E9"/>
+  <dimension ref="A1:E10"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E9" sqref="E9"/>
+      <selection sqref="A1:XFD1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -431,21 +458,21 @@
     <col min="5" max="5" width="46.42578125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" s="2" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="C1" s="1" t="s">
-        <v>2</v>
-      </c>
-      <c r="D1" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="E1" s="1" t="s">
-        <v>4</v>
+    <row r="1" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A1" s="4" t="s">
+        <v>6</v>
+      </c>
+      <c r="B1" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="C1" s="4" t="s">
+        <v>8</v>
+      </c>
+      <c r="D1" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="E1" s="4" t="s">
+        <v>10</v>
       </c>
     </row>
     <row r="2" spans="1:5" s="2" customFormat="1" x14ac:dyDescent="0.25">
@@ -580,21 +607,38 @@
       <c r="D9" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="E9" s="3" t="s">
+      <c r="E9" s="1" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="10" spans="1:5" s="2" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A10" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B10" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C10" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="D10" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="E10" s="3" t="s">
         <v>5</v>
       </c>
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="E1" r:id="rId1"/>
-    <hyperlink ref="E2" r:id="rId2"/>
-    <hyperlink ref="E4" r:id="rId3"/>
-    <hyperlink ref="E3" r:id="rId4"/>
-    <hyperlink ref="E6" r:id="rId5"/>
-    <hyperlink ref="E8" r:id="rId6"/>
-    <hyperlink ref="E7" r:id="rId7"/>
-    <hyperlink ref="E5" r:id="rId8"/>
-    <hyperlink ref="E9" r:id="rId9"/>
+    <hyperlink ref="E2" r:id="rId1"/>
+    <hyperlink ref="E3" r:id="rId2"/>
+    <hyperlink ref="E5" r:id="rId3"/>
+    <hyperlink ref="E4" r:id="rId4"/>
+    <hyperlink ref="E7" r:id="rId5"/>
+    <hyperlink ref="E9" r:id="rId6"/>
+    <hyperlink ref="E8" r:id="rId7"/>
+    <hyperlink ref="E6" r:id="rId8"/>
+    <hyperlink ref="E10" r:id="rId9"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
